--- a/wf_data.xlsx
+++ b/wf_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmgs/Documents/CEED/Petrochemical Scoping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmgs/Documents/Github/sea-petchem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE02190-80F0-6840-8334-8FA22D866A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB581B-4339-CD41-AFEE-76135007FB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="1740" windowWidth="26620" windowHeight="16260" xr2:uid="{3B4969AE-2234-774F-A28F-2683FA1E44DB}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4721" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="1366">
   <si>
     <t>Announced</t>
   </si>
@@ -4278,10 +4278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="172" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4361,19 +4361,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4446,7 +4433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4475,52 +4462,35 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4536,10 +4506,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4871,7 +4837,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>567</v>
       </c>
       <c r="B1" t="s">
@@ -4879,20 +4845,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="39">
         <v>45611</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>819</v>
       </c>
       <c r="B5" t="s">
@@ -4900,7 +4866,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>820</v>
       </c>
       <c r="B6" t="s">
@@ -4908,7 +4874,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="23" t="s">
         <v>927</v>
       </c>
       <c r="B7" t="s">
@@ -4916,7 +4882,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="23" t="s">
         <v>928</v>
       </c>
       <c r="B8" t="s">
@@ -4924,7 +4890,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>1360</v>
       </c>
       <c r="B9" t="s">
@@ -4932,7 +4898,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>1361</v>
       </c>
       <c r="B10" t="s">
@@ -4940,7 +4906,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>1362</v>
       </c>
       <c r="B11" t="s">
@@ -4948,7 +4914,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>1363</v>
       </c>
       <c r="B12" t="s">
@@ -4964,8 +4930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40768793-6447-D64E-91B8-A1D1ABB0D105}">
   <dimension ref="A1:AB1008"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5137,7 +5103,9 @@
       <c r="AA2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AB2" s="3"/>
+      <c r="AB2" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -5215,7 +5183,9 @@
       <c r="AA3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AB3" s="3"/>
+      <c r="AB3" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -5289,7 +5259,9 @@
       <c r="AA4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AB4" s="3"/>
+      <c r="AB4" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -5361,7 +5333,9 @@
       <c r="AA5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AB5" s="3"/>
+      <c r="AB5" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -5433,7 +5407,9 @@
       <c r="AA6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AB6" s="3"/>
+      <c r="AB6" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -5733,7 +5709,9 @@
       <c r="AA10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AB10" s="8"/>
+      <c r="AB10" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -6203,7 +6181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>588</v>
       </c>
@@ -6277,7 +6255,9 @@
       <c r="AA17" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="AB17" s="8"/>
+      <c r="AB17" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -6702,7 +6682,7 @@
       <c r="J23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="4" t="s">
         <v>91</v>
       </c>
       <c r="L23" s="4" t="s">
@@ -6761,7 +6741,7 @@
       <c r="C24" s="7">
         <v>4752039158</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="5">
         <v>44909</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -6782,7 +6762,7 @@
       <c r="J24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="4" t="s">
         <v>109</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -6860,7 +6840,7 @@
       <c r="J25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -6936,7 +6916,7 @@
       <c r="J26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -7016,7 +6996,7 @@
       <c r="J27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -7096,7 +7076,7 @@
       <c r="J28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -7170,7 +7150,7 @@
       <c r="J29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -7244,7 +7224,7 @@
       <c r="J30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -7320,7 +7300,7 @@
       <c r="J31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -7398,7 +7378,7 @@
       <c r="J32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="4" t="s">
         <v>109</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -7478,7 +7458,7 @@
       <c r="J33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -7556,7 +7536,7 @@
       <c r="J34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -7630,7 +7610,7 @@
       <c r="J35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -7704,7 +7684,7 @@
       <c r="J36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -7782,7 +7762,7 @@
       <c r="J37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -7856,7 +7836,7 @@
       <c r="J38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -7934,7 +7914,7 @@
       <c r="J39" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -8014,7 +7994,7 @@
       <c r="J40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L40" s="4" t="s">
@@ -8063,7 +8043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>612</v>
       </c>
@@ -8094,7 +8074,7 @@
       <c r="J41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="K41" s="8" t="s">
         <v>204</v>
       </c>
       <c r="L41" s="8" t="s">
@@ -8137,7 +8117,9 @@
       <c r="AA41" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="AB41" s="8"/>
+      <c r="AB41" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
@@ -8149,7 +8131,7 @@
       <c r="C42" s="7">
         <v>4479315158</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="5">
         <v>44524</v>
       </c>
       <c r="E42" s="10" t="s">
@@ -8170,7 +8152,7 @@
       <c r="J42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="4" t="s">
         <v>564</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -8246,7 +8228,7 @@
       <c r="J43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L43" s="4" t="s">
@@ -8318,7 +8300,7 @@
       <c r="J44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L44" s="4" t="s">
@@ -8398,7 +8380,7 @@
       <c r="J45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="4" t="s">
         <v>109</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -8474,7 +8456,7 @@
       <c r="J46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="25" t="s">
+      <c r="K46" s="4" t="s">
         <v>227</v>
       </c>
       <c r="L46" s="4" t="s">
@@ -8552,7 +8534,7 @@
       <c r="J47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -8628,7 +8610,7 @@
       <c r="J48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="25" t="s">
+      <c r="K48" s="4" t="s">
         <v>236</v>
       </c>
       <c r="L48" s="4" t="s">
@@ -8708,7 +8690,7 @@
       <c r="J49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="K49" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -8788,7 +8770,7 @@
       <c r="J50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K50" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L50" s="4" t="s">
@@ -10272,7 +10254,7 @@
       <c r="D69" s="5">
         <v>42739</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -10343,7 +10325,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>641</v>
       </c>
@@ -10353,7 +10335,7 @@
       <c r="C70" s="19">
         <v>3373156158</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="20">
         <v>42689</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -10362,55 +10344,55 @@
       <c r="F70" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G70" s="32" t="s">
+      <c r="G70" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H70" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I70" s="32" t="s">
+      <c r="I70" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J70" s="32" t="s">
+      <c r="J70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K70" s="32" t="s">
+      <c r="K70" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="L70" s="32" t="s">
+      <c r="L70" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="M70" s="31">
+      <c r="M70" s="20">
         <v>44746</v>
       </c>
-      <c r="N70" s="32" t="s">
+      <c r="N70" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="O70" s="32" t="s">
+      <c r="O70" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="P70" s="32">
+      <c r="P70" s="8">
         <v>1526.05188576412</v>
       </c>
-      <c r="Q70" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="R70" s="32" t="s">
+      <c r="Q70" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="S70" s="32" t="s">
+      <c r="S70" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="T70" s="32" t="s">
+      <c r="T70" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="U70" s="32" t="s">
+      <c r="U70" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="V70" s="32" t="s">
+      <c r="V70" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="W70" s="32" t="b">
+      <c r="W70" s="8" t="b">
         <v>1</v>
       </c>
       <c r="X70" s="8" t="b">
@@ -10419,13 +10401,15 @@
       <c r="Y70" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="Z70" s="32" t="b">
+      <c r="Z70" s="8" t="b">
         <v>1</v>
       </c>
       <c r="AA70" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="AB70" s="33"/>
+      <c r="AB70" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B71" s="7"/>
@@ -13280,49 +13264,49 @@
     <col min="8" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="1" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="24" t="s">
         <v>679</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -13334,36 +13318,36 @@
       <c r="D2" s="7">
         <v>5597874158</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="25">
         <v>50</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="24" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="24" t="s">
         <v>681</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -13375,32 +13359,32 @@
       <c r="D3" s="7">
         <v>5597874158</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="25">
         <v>50</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="24" t="s">
         <v>682</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -13412,36 +13396,36 @@
       <c r="D4" s="7">
         <v>5495676158</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="16">
         <v>33.333300000000001</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="24" t="s">
         <v>683</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -13453,36 +13437,36 @@
       <c r="D5" s="7">
         <v>5495676158</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="4" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="16">
         <v>33.333300000000001</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="24" t="s">
         <v>684</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -13494,36 +13478,36 @@
       <c r="D6" s="7">
         <v>5495676158</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="4" t="s">
         <v>359</v>
       </c>
       <c r="I6" s="16">
         <v>33.333300000000001</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="24" t="s">
         <v>685</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -13535,36 +13519,36 @@
       <c r="D7" s="7">
         <v>5461524158</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="25">
         <v>100</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="24" t="s">
         <v>686</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -13576,36 +13560,36 @@
       <c r="D8" s="7">
         <v>5587462158</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="25">
         <v>100</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="24" t="s">
         <v>687</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13617,36 +13601,36 @@
       <c r="D9" s="7">
         <v>5587542158</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="25">
         <v>100</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="24" t="s">
         <v>688</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -13687,7 +13671,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="24" t="s">
         <v>689</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -13728,7 +13712,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="24" t="s">
         <v>690</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13769,7 +13753,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="24" t="s">
         <v>691</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -13810,7 +13794,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="24" t="s">
         <v>692</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -13851,7 +13835,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="24" t="s">
         <v>693</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -13892,7 +13876,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="24" t="s">
         <v>694</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -13933,7 +13917,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="24" t="s">
         <v>695</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -13974,7 +13958,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="24" t="s">
         <v>696</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -14015,7 +13999,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="24" t="s">
         <v>697</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -14056,7 +14040,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="24" t="s">
         <v>698</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -14097,7 +14081,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="24" t="s">
         <v>699</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -14138,7 +14122,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="24" t="s">
         <v>700</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -14179,7 +14163,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="24" t="s">
         <v>701</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -14220,7 +14204,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="24" t="s">
         <v>702</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -14261,7 +14245,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="24" t="s">
         <v>703</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -14302,7 +14286,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="24" t="s">
         <v>704</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -14343,7 +14327,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="24" t="s">
         <v>705</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -14384,7 +14368,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="24" t="s">
         <v>706</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -14425,7 +14409,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="24" t="s">
         <v>707</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -14466,7 +14450,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="24" t="s">
         <v>708</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -14507,7 +14491,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="24" t="s">
         <v>709</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -14548,7 +14532,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="24" t="s">
         <v>710</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -14589,7 +14573,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="24" t="s">
         <v>711</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -14630,7 +14614,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="24" t="s">
         <v>712</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -14671,7 +14655,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="24" t="s">
         <v>713</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -14712,7 +14696,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="24" t="s">
         <v>714</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -14753,7 +14737,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="24" t="s">
         <v>715</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -14794,7 +14778,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="24" t="s">
         <v>716</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -14835,7 +14819,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="24" t="s">
         <v>717</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -14876,7 +14860,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="24" t="s">
         <v>718</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -14917,7 +14901,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="24" t="s">
         <v>719</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -14958,7 +14942,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="24" t="s">
         <v>720</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -14999,7 +14983,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="24" t="s">
         <v>721</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -15040,7 +15024,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="24" t="s">
         <v>722</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -15081,7 +15065,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="24" t="s">
         <v>723</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -15122,7 +15106,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="24" t="s">
         <v>724</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -15163,7 +15147,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="24" t="s">
         <v>725</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -15204,7 +15188,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="24" t="s">
         <v>726</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -15245,7 +15229,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="24" t="s">
         <v>727</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -15286,7 +15270,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="24" t="s">
         <v>728</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -15327,7 +15311,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="24" t="s">
         <v>729</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -15368,7 +15352,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="24" t="s">
         <v>730</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -15409,7 +15393,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="24" t="s">
         <v>731</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -15450,7 +15434,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="24" t="s">
         <v>732</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -15491,7 +15475,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="24" t="s">
         <v>733</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -15532,7 +15516,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="24" t="s">
         <v>734</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -15573,7 +15557,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="24" t="s">
         <v>735</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -15614,7 +15598,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="24" t="s">
         <v>736</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -15655,7 +15639,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="24" t="s">
         <v>737</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -15696,7 +15680,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="24" t="s">
         <v>738</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -15737,7 +15721,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="24" t="s">
         <v>739</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -15778,7 +15762,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="24" t="s">
         <v>740</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -15819,7 +15803,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="24" t="s">
         <v>741</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -15860,7 +15844,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="24" t="s">
         <v>742</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -15901,7 +15885,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="24" t="s">
         <v>743</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -15942,7 +15926,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="24" t="s">
         <v>744</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -15983,7 +15967,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="24" t="s">
         <v>745</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -16024,7 +16008,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="24" t="s">
         <v>746</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -16065,7 +16049,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="24" t="s">
         <v>747</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -16106,7 +16090,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="24" t="s">
         <v>748</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -16147,7 +16131,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="24" t="s">
         <v>749</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -16188,7 +16172,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="24" t="s">
         <v>750</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -16229,7 +16213,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="24" t="s">
         <v>751</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -16270,7 +16254,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="24" t="s">
         <v>752</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -16311,7 +16295,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="24" t="s">
         <v>753</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -16352,7 +16336,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="24" t="s">
         <v>754</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -16393,7 +16377,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="24" t="s">
         <v>755</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -16434,7 +16418,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="24" t="s">
         <v>756</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -16475,7 +16459,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="24" t="s">
         <v>757</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -16516,7 +16500,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="24" t="s">
         <v>758</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -16557,7 +16541,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="24" t="s">
         <v>759</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -16598,7 +16582,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="24" t="s">
         <v>760</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -16639,7 +16623,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="24" t="s">
         <v>761</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -16680,7 +16664,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="24" t="s">
         <v>762</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -16721,7 +16705,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="24" t="s">
         <v>763</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -16762,7 +16746,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="24" t="s">
         <v>764</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -16803,7 +16787,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="24" t="s">
         <v>765</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -16844,7 +16828,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="24" t="s">
         <v>766</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -16885,7 +16869,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="34" t="s">
+      <c r="A89" s="24" t="s">
         <v>767</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -16926,7 +16910,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="24" t="s">
         <v>768</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -16967,7 +16951,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="24" t="s">
         <v>769</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -17008,7 +16992,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="24" t="s">
         <v>770</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -17049,7 +17033,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="24" t="s">
         <v>771</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -17090,7 +17074,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="24" t="s">
         <v>772</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -17131,7 +17115,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="24" t="s">
         <v>773</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -17172,7 +17156,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="24" t="s">
         <v>774</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -17213,7 +17197,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="24" t="s">
         <v>775</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -17254,7 +17238,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="24" t="s">
         <v>776</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -17295,7 +17279,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="24" t="s">
         <v>777</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -17336,7 +17320,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="24" t="s">
         <v>778</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -17377,7 +17361,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="24" t="s">
         <v>779</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -17418,7 +17402,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="24" t="s">
         <v>780</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -17459,7 +17443,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="24" t="s">
         <v>781</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -17500,7 +17484,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="24" t="s">
         <v>782</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -17541,7 +17525,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="24" t="s">
         <v>783</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -17582,7 +17566,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="24" t="s">
         <v>784</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -17623,7 +17607,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="24" t="s">
         <v>785</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -17664,7 +17648,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="24" t="s">
         <v>786</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -17705,7 +17689,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="24" t="s">
         <v>787</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -17746,7 +17730,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="24" t="s">
         <v>788</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -17787,7 +17771,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="24" t="s">
         <v>789</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -17828,7 +17812,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="24" t="s">
         <v>790</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -17869,7 +17853,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="24" t="s">
         <v>791</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -17900,7 +17884,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="24" t="s">
         <v>792</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -17941,7 +17925,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="24" t="s">
         <v>793</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -17972,7 +17956,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="24" t="s">
         <v>794</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -18013,7 +17997,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="24" t="s">
         <v>795</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -18054,7 +18038,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="24" t="s">
         <v>796</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -18093,7 +18077,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" s="34" t="s">
+      <c r="A119" s="24" t="s">
         <v>797</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -18134,7 +18118,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" s="34" t="s">
+      <c r="A120" s="24" t="s">
         <v>798</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -18175,7 +18159,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="24" t="s">
         <v>799</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -18216,7 +18200,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" s="34" t="s">
+      <c r="A122" s="24" t="s">
         <v>800</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -18257,7 +18241,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="34" t="s">
+      <c r="A123" s="24" t="s">
         <v>801</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -18298,7 +18282,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="34" t="s">
+      <c r="A124" s="24" t="s">
         <v>802</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -18339,7 +18323,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="34" t="s">
+      <c r="A125" s="24" t="s">
         <v>803</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -18380,7 +18364,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="24" t="s">
         <v>804</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -18421,7 +18405,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="24" t="s">
         <v>805</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -18462,7 +18446,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="24" t="s">
         <v>806</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -18503,7 +18487,7 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="34" t="s">
+      <c r="A129" s="24" t="s">
         <v>807</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -18544,7 +18528,7 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="24" t="s">
         <v>808</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -18585,7 +18569,7 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" s="34" t="s">
+      <c r="A131" s="24" t="s">
         <v>809</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -18626,7 +18610,7 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="24" t="s">
         <v>810</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -18667,7 +18651,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="24" t="s">
         <v>811</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -18706,7 +18690,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="24" t="s">
         <v>812</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -18747,7 +18731,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="24" t="s">
         <v>813</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -18788,7 +18772,7 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" s="34" t="s">
+      <c r="A136" s="24" t="s">
         <v>814</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -18829,7 +18813,7 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="24" t="s">
         <v>815</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -18870,7 +18854,7 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="24" t="s">
         <v>816</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -18911,7 +18895,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" s="34" t="s">
+      <c r="A139" s="24" t="s">
         <v>817</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -18952,7 +18936,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="34" t="s">
+      <c r="A140" s="24" t="s">
         <v>818</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -18988,7 +18972,7 @@
       <c r="L140" t="s">
         <v>664</v>
       </c>
-      <c r="M140" s="36" t="s">
+      <c r="M140" s="4" t="s">
         <v>343</v>
       </c>
     </row>
@@ -19002,7 +18986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C420AB-B889-1545-9030-7F01D544120C}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -19011,56 +18995,56 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="3" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19068,10 +19052,10 @@
       <c r="A2" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="27">
         <v>154088271211</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="28" t="s">
         <v>821</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -19085,10 +19069,10 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="42">
+      <c r="I2" s="29">
         <v>44776</v>
       </c>
-      <c r="J2" s="43"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="6">
         <v>263</v>
       </c>
@@ -19111,10 +19095,10 @@
       <c r="A3" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="27">
         <v>154086854469</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="28" t="s">
         <v>821</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -19128,10 +19112,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="42">
+      <c r="I3" s="29">
         <v>44040</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="6">
         <v>1750</v>
       </c>
@@ -19157,7 +19141,7 @@
       <c r="B4" s="7">
         <v>154087344887</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="31" t="s">
         <v>404</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -19175,10 +19159,10 @@
       <c r="H4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="32">
         <v>44483</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="32">
         <v>44483</v>
       </c>
       <c r="K4" s="4">
@@ -19193,7 +19177,7 @@
       <c r="N4" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="32">
         <v>46309</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -19228,10 +19212,10 @@
       <c r="H5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="32">
         <v>44300</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="32">
         <v>44300</v>
       </c>
       <c r="K5" s="4">
@@ -19261,7 +19245,7 @@
       <c r="B6" s="7">
         <v>71638</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="28" t="s">
         <v>821</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -19275,10 +19259,10 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="45">
+      <c r="I6" s="32">
         <v>43313</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="32">
         <v>43772</v>
       </c>
       <c r="K6" s="4">
@@ -19289,7 +19273,7 @@
         <v>115</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="46">
+      <c r="O6" s="33">
         <v>47178</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -19324,10 +19308,10 @@
       <c r="H7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="32">
         <v>43280</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="32">
         <v>43280</v>
       </c>
       <c r="K7" s="4">
@@ -19342,7 +19326,7 @@
       <c r="N7" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="32">
         <v>45837</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -19375,10 +19359,10 @@
       <c r="H8" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="33">
         <v>43774</v>
       </c>
-      <c r="J8" s="46"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="8">
         <v>282.5</v>
       </c>
@@ -19418,10 +19402,10 @@
       <c r="H9" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="33">
         <v>43774</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="8">
         <v>98.625</v>
       </c>
@@ -19461,10 +19445,10 @@
       <c r="H10" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="33">
         <v>43774</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="8">
         <v>158.80000000000001</v>
       </c>
@@ -19500,10 +19484,10 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="46">
+      <c r="I11" s="33">
         <v>43313</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="33">
         <v>42795</v>
       </c>
       <c r="K11" s="8">
@@ -19541,10 +19525,10 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="46">
+      <c r="I12" s="33">
         <v>43313</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="33">
         <v>42795</v>
       </c>
       <c r="K12" s="8">
@@ -19586,10 +19570,10 @@
       <c r="H13" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="33">
         <v>43160</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="8">
         <v>421.05263100000002</v>
       </c>
@@ -19625,10 +19609,10 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="46">
+      <c r="I14" s="33">
         <v>43313</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="33">
         <v>43772</v>
       </c>
       <c r="K14" s="4">
@@ -19669,29 +19653,29 @@
     <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="1" t="s">
         <v>903</v>
       </c>
     </row>
@@ -19702,10 +19686,10 @@
       <c r="B2" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="36" t="s">
         <v>821</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -19728,10 +19712,10 @@
       <c r="B3" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="36" t="s">
         <v>821</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -19754,10 +19738,10 @@
       <c r="B4" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="36" t="s">
         <v>821</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -19780,10 +19764,10 @@
       <c r="B5" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="35" t="s">
         <v>883</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="36" t="s">
         <v>821</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -19806,10 +19790,10 @@
       <c r="B6" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="35" t="s">
         <v>883</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="36" t="s">
         <v>821</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -19832,7 +19816,7 @@
       <c r="B7" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="35" t="s">
         <v>886</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -19858,7 +19842,7 @@
       <c r="B8" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="35" t="s">
         <v>889</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -19887,7 +19871,7 @@
       <c r="C9" s="7">
         <v>71638</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="28" t="s">
         <v>821</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -19910,7 +19894,7 @@
       <c r="B10" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="35" t="s">
         <v>892</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -19936,7 +19920,7 @@
       <c r="B11" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="35" t="s">
         <v>892</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -20313,7 +20297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1041F363-6D89-7646-ADAD-C488EB250501}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -20379,7 +20363,7 @@
       <c r="B2" s="8">
         <v>5440138</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="39">
         <v>45467</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -20422,7 +20406,7 @@
       <c r="B3" s="8">
         <v>5226097</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="39">
         <v>45240</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -20441,7 +20425,7 @@
       <c r="I3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="41">
         <v>63.734862970044603</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -20462,13 +20446,13 @@
       <c r="A4" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="37">
         <v>4831299</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="40">
         <v>44985</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -20486,7 +20470,7 @@
       <c r="I4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="41">
         <v>141.96479273140301</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -20512,7 +20496,7 @@
       <c r="B5" s="8">
         <v>4801129</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="39">
         <v>44959</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -20531,7 +20515,7 @@
       <c r="I5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="41">
         <v>67.226890756302495</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -20550,13 +20534,13 @@
       <c r="A6" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="37">
         <v>4784831</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="40">
         <v>44937</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E6" s="8"/>
@@ -20572,7 +20556,7 @@
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="41">
         <v>209.39276099311999</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -20593,13 +20577,13 @@
       <c r="A7" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="37">
         <v>4702680</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="40">
         <v>44841</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -20617,7 +20601,7 @@
       <c r="I7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="41">
         <v>199.574241617882</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -20638,13 +20622,13 @@
       <c r="A8" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="37">
         <v>4673409</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="40">
         <v>44806</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E8" s="8"/>
@@ -20660,7 +20644,7 @@
       <c r="I8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="41">
         <v>139.078265612217</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -20684,7 +20668,7 @@
       <c r="B9" s="8">
         <v>4615421</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="39">
         <v>44718</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -20705,7 +20689,7 @@
       <c r="I9" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="41">
         <v>232.828870779977</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -20729,7 +20713,7 @@
       <c r="B10" s="8">
         <v>4615430</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="39">
         <v>44718</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -20750,7 +20734,7 @@
       <c r="I10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="41">
         <v>494.761350407451</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -20771,13 +20755,13 @@
       <c r="A11" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="37">
         <v>4604955</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="40">
         <v>44705</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -20795,7 +20779,7 @@
       <c r="I11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="41">
         <v>109.888497652582</v>
       </c>
       <c r="K11" s="8" t="s">
@@ -20819,7 +20803,7 @@
       <c r="B12" s="8">
         <v>4850215</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="39">
         <v>44650</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -20838,7 +20822,7 @@
       <c r="I12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="41">
         <v>52.301255230125498</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -20860,10 +20844,10 @@
       <c r="B13" s="8">
         <v>4516887</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="39">
         <v>44650</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="8" t="s">
         <v>947</v>
       </c>
       <c r="E13" s="8"/>
@@ -20879,7 +20863,7 @@
       <c r="I13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="41">
         <v>906.89238210399003</v>
       </c>
       <c r="K13" s="8" t="s">
@@ -20900,13 +20884,13 @@
       <c r="A14" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="37">
         <v>4415620</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="40">
         <v>44438</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E14" s="8"/>
@@ -20922,7 +20906,7 @@
       <c r="I14" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="41">
         <v>246.30541871921201</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -20943,13 +20927,13 @@
       <c r="A15" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="37">
         <v>4404343</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="40">
         <v>44432</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="37" t="s">
         <v>950</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -20967,7 +20951,7 @@
       <c r="I15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="41">
         <v>35.570310647379699</v>
       </c>
       <c r="K15" s="8" t="s">
@@ -20993,7 +20977,7 @@
       <c r="B16" s="8">
         <v>4363278</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="39">
         <v>44378</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -21014,7 +20998,7 @@
       <c r="I16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="41">
         <v>51.724137931034498</v>
       </c>
       <c r="K16" s="8" t="s">
@@ -21033,13 +21017,13 @@
       <c r="A17" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="37">
         <v>4281019</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="40">
         <v>44284</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -21057,7 +21041,7 @@
       <c r="I17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="41">
         <v>128.24623276691199</v>
       </c>
       <c r="K17" s="8" t="s">
@@ -21078,13 +21062,13 @@
       <c r="A18" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="37">
         <v>4210317</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="40">
         <v>44221</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -21102,7 +21086,7 @@
       <c r="I18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="41">
         <v>133.46680013346699</v>
       </c>
       <c r="K18" s="8" t="s">
@@ -21124,7 +21108,7 @@
       <c r="B19" s="8">
         <v>4165183</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="39">
         <v>44152</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -21143,7 +21127,7 @@
       <c r="I19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="41">
         <v>27.549536707056301</v>
       </c>
       <c r="K19" s="8" t="s">
@@ -21162,13 +21146,13 @@
       <c r="A20" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="37">
         <v>4130078</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="40">
         <v>44102</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -21186,7 +21170,7 @@
       <c r="I20" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="41">
         <v>442.19835754895797</v>
       </c>
       <c r="K20" s="8" t="s">
@@ -21207,13 +21191,13 @@
       <c r="A21" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="37">
         <v>4074172</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="40">
         <v>44015</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E21" s="8"/>
@@ -21229,7 +21213,7 @@
       <c r="I21" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="41">
         <v>70.739549839228303</v>
       </c>
       <c r="K21" s="8" t="s">
@@ -21248,13 +21232,13 @@
       <c r="A22" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="37">
         <v>4022873</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="40">
         <v>43987</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -21272,7 +21256,7 @@
       <c r="I22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="41">
         <v>158.73015873015899</v>
       </c>
       <c r="K22" s="8" t="s">
@@ -21294,7 +21278,7 @@
       <c r="B23" s="8">
         <v>3987102</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="39">
         <v>43922</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -21313,7 +21297,7 @@
       <c r="I23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="41">
         <v>453.17220543806599</v>
       </c>
       <c r="K23" s="8" t="s">
@@ -21335,7 +21319,7 @@
       <c r="B24" s="8">
         <v>3977520</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="39">
         <v>43906</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -21356,7 +21340,7 @@
       <c r="I24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="41">
         <v>23.656375838926198</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -21375,13 +21359,13 @@
       <c r="A25" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="37">
         <v>3935689</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="40">
         <v>43823</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -21399,7 +21383,7 @@
       <c r="I25" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="41">
         <v>146.03385330235599</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -21423,7 +21407,7 @@
       <c r="B26" s="8">
         <v>3930563</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="39">
         <v>43815</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -21442,7 +21426,7 @@
       <c r="I26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="41">
         <v>53.571428571428598</v>
       </c>
       <c r="K26" s="8" t="s">
@@ -21461,13 +21445,13 @@
       <c r="A27" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="37">
         <v>3888970</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="40">
         <v>43733</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -21485,7 +21469,7 @@
       <c r="I27" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="41">
         <v>98.039215686274503</v>
       </c>
       <c r="K27" s="8" t="s">
@@ -21507,7 +21491,7 @@
       <c r="B28" s="8">
         <v>3871893</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="39">
         <v>43704</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -21526,7 +21510,7 @@
       <c r="I28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="41">
         <v>327.11808963035702</v>
       </c>
       <c r="K28" s="8" t="s">
@@ -21548,7 +21532,7 @@
       <c r="B29" s="8">
         <v>3866119</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="39">
         <v>43686</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -21569,7 +21553,7 @@
       <c r="I29" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="41">
         <v>324.78077297824001</v>
       </c>
       <c r="K29" s="8" t="s">
@@ -21588,13 +21572,13 @@
       <c r="A30" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="37">
         <v>3864758</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="40">
         <v>43671</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E30" s="8"/>
@@ -21610,7 +21594,7 @@
       <c r="I30" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="41">
         <v>129.366106080207</v>
       </c>
       <c r="K30" s="8" t="s">
@@ -21632,7 +21616,7 @@
       <c r="B31" s="8">
         <v>3847841</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="39">
         <v>43670</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -21653,7 +21637,7 @@
       <c r="I31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="41">
         <v>323.62459546925601</v>
       </c>
       <c r="K31" s="8" t="s">
@@ -21674,13 +21658,13 @@
       <c r="A32" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="37">
         <v>3848424</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="40">
         <v>43651</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -21698,7 +21682,7 @@
       <c r="I32" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="41">
         <v>97.465886939571106</v>
       </c>
       <c r="K32" s="8" t="s">
@@ -21717,13 +21701,13 @@
       <c r="A33" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="37">
         <v>3893374</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="40">
         <v>43632</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -21741,7 +21725,7 @@
       <c r="I33" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="41">
         <v>192.24607497596901</v>
       </c>
       <c r="K33" s="8" t="s">
@@ -21760,13 +21744,13 @@
       <c r="A34" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="37">
         <v>3761683</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="40">
         <v>43472</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -21784,7 +21768,7 @@
       <c r="I34" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="41">
         <v>125.23481527864701</v>
       </c>
       <c r="K34" s="8" t="s">
@@ -21803,13 +21787,13 @@
       <c r="A35" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="B35" s="50">
+      <c r="B35" s="37">
         <v>3759430</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="40">
         <v>43404</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -21827,7 +21811,7 @@
       <c r="I35" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="41">
         <v>120.80942313500501</v>
       </c>
       <c r="K35" s="8" t="s">
@@ -21846,13 +21830,13 @@
       <c r="A36" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="37">
         <v>3634764</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="40">
         <v>43195</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -21870,7 +21854,7 @@
       <c r="I36" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J36" s="55">
+      <c r="J36" s="41">
         <v>256.08194622279098</v>
       </c>
       <c r="K36" s="8" t="s">
@@ -21892,7 +21876,7 @@
       <c r="B37" s="8">
         <v>3474849</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="39">
         <v>42936</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -21913,7 +21897,7 @@
       <c r="I37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="41">
         <v>297.88501638367597</v>
       </c>
       <c r="K37" s="8" t="s">
@@ -21932,13 +21916,13 @@
       <c r="A38" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="B38" s="50">
+      <c r="B38" s="37">
         <v>3465729</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="40">
         <v>42913</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E38" s="8"/>
@@ -21954,7 +21938,7 @@
       <c r="I38" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="55">
+      <c r="J38" s="41">
         <v>117.750956726523</v>
       </c>
       <c r="K38" s="8" t="s">
@@ -22068,29 +22052,29 @@
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="3" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -22257,10 +22241,10 @@
       <c r="B8" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="37">
         <v>4831299</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -22283,10 +22267,10 @@
       <c r="B9" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="37">
         <v>4831299</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -22309,10 +22293,10 @@
       <c r="B10" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="37">
         <v>4831299</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -22335,10 +22319,10 @@
       <c r="B11" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="37">
         <v>4831299</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -22361,10 +22345,10 @@
       <c r="B12" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="37">
         <v>4831299</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -22387,10 +22371,10 @@
       <c r="B13" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="37">
         <v>4831299</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -22413,10 +22397,10 @@
       <c r="B14" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="37">
         <v>4831299</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -22439,10 +22423,10 @@
       <c r="B15" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="37">
         <v>4831299</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -22465,10 +22449,10 @@
       <c r="B16" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="37">
         <v>4831299</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -22491,10 +22475,10 @@
       <c r="B17" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="37">
         <v>4831299</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -22517,10 +22501,10 @@
       <c r="B18" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="37">
         <v>4831299</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -22543,10 +22527,10 @@
       <c r="B19" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="37">
         <v>4831299</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -22555,7 +22539,7 @@
       <c r="F19" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="38" t="s">
         <v>1032</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -22569,10 +22553,10 @@
       <c r="B20" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="37">
         <v>4831299</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -22595,10 +22579,10 @@
       <c r="B21" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="37">
         <v>4831299</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -22621,10 +22605,10 @@
       <c r="B22" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="37">
         <v>4831299</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -22647,10 +22631,10 @@
       <c r="B23" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="37">
         <v>4831299</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -22673,10 +22657,10 @@
       <c r="B24" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="37">
         <v>4831299</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -22777,10 +22761,10 @@
       <c r="B28" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="37">
         <v>4784831</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -22803,10 +22787,10 @@
       <c r="B29" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="37">
         <v>4702680</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -22829,10 +22813,10 @@
       <c r="B30" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="37">
         <v>4702680</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -22855,10 +22839,10 @@
       <c r="B31" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="37">
         <v>4702680</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -22881,10 +22865,10 @@
       <c r="B32" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="37">
         <v>4702680</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -22907,10 +22891,10 @@
       <c r="B33" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="37">
         <v>4702680</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -22933,10 +22917,10 @@
       <c r="B34" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="37">
         <v>4702680</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -22959,10 +22943,10 @@
       <c r="B35" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="37">
         <v>4702680</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -22985,10 +22969,10 @@
       <c r="B36" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="37">
         <v>4702680</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E36" s="8" t="s">
@@ -23011,10 +22995,10 @@
       <c r="B37" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="37">
         <v>4702680</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -23037,10 +23021,10 @@
       <c r="B38" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="37">
         <v>4702680</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -23063,10 +23047,10 @@
       <c r="B39" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="37">
         <v>4702680</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -23089,10 +23073,10 @@
       <c r="B40" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="37">
         <v>4702680</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -23115,10 +23099,10 @@
       <c r="B41" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="37">
         <v>4702680</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -23141,10 +23125,10 @@
       <c r="B42" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="37">
         <v>4702680</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -23167,10 +23151,10 @@
       <c r="B43" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="37">
         <v>4702680</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -23193,10 +23177,10 @@
       <c r="B44" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="37">
         <v>4702680</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -23219,10 +23203,10 @@
       <c r="B45" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="37">
         <v>4702680</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -23245,10 +23229,10 @@
       <c r="B46" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="37">
         <v>4702680</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -23271,10 +23255,10 @@
       <c r="B47" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="37">
         <v>4673409</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -23297,10 +23281,10 @@
       <c r="B48" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="37">
         <v>4673409</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -23323,10 +23307,10 @@
       <c r="B49" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="37">
         <v>4673409</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -23349,10 +23333,10 @@
       <c r="B50" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="37">
         <v>4673409</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -23635,10 +23619,10 @@
       <c r="B61" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="37">
         <v>4604955</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -23661,10 +23645,10 @@
       <c r="B62" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="37">
         <v>4604955</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -23687,10 +23671,10 @@
       <c r="B63" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63" s="37">
         <v>4604955</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -23713,10 +23697,10 @@
       <c r="B64" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="37">
         <v>4604955</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -23739,10 +23723,10 @@
       <c r="B65" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="37">
         <v>4604955</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -23765,10 +23749,10 @@
       <c r="B66" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66" s="37">
         <v>4604955</v>
       </c>
-      <c r="D66" s="50" t="s">
+      <c r="D66" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -23791,10 +23775,10 @@
       <c r="B67" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="37">
         <v>4604955</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -23817,10 +23801,10 @@
       <c r="B68" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="37">
         <v>4604955</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -23843,10 +23827,10 @@
       <c r="B69" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69" s="37">
         <v>4604955</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -23869,10 +23853,10 @@
       <c r="B70" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="37">
         <v>4604955</v>
       </c>
-      <c r="D70" s="50" t="s">
+      <c r="D70" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -23895,10 +23879,10 @@
       <c r="B71" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="37">
         <v>4604955</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E71" s="8" t="s">
@@ -23921,10 +23905,10 @@
       <c r="B72" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C72" s="50">
+      <c r="C72" s="37">
         <v>4604955</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E72" s="8" t="s">
@@ -23947,10 +23931,10 @@
       <c r="B73" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C73" s="50">
+      <c r="C73" s="37">
         <v>4604955</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E73" s="8" t="s">
@@ -24025,10 +24009,10 @@
       <c r="B76" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76" s="37">
         <v>4516887</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="D76" s="37" t="s">
         <v>947</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -24051,10 +24035,10 @@
       <c r="B77" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="C77" s="50">
+      <c r="C77" s="37">
         <v>4516887</v>
       </c>
-      <c r="D77" s="50" t="s">
+      <c r="D77" s="37" t="s">
         <v>947</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -24077,10 +24061,10 @@
       <c r="B78" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="37">
         <v>4516887</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D78" s="37" t="s">
         <v>947</v>
       </c>
       <c r="E78" s="8" t="s">
@@ -24103,10 +24087,10 @@
       <c r="B79" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79" s="37">
         <v>4516887</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="37" t="s">
         <v>947</v>
       </c>
       <c r="E79" s="8" t="s">
@@ -24233,10 +24217,10 @@
       <c r="B84" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84" s="37">
         <v>4415620</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -24259,10 +24243,10 @@
       <c r="B85" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C85" s="37">
         <v>4415620</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -24285,10 +24269,10 @@
       <c r="B86" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C86" s="50">
+      <c r="C86" s="37">
         <v>4415620</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E86" s="8" t="s">
@@ -24311,10 +24295,10 @@
       <c r="B87" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C87" s="50">
+      <c r="C87" s="37">
         <v>4415620</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -24337,10 +24321,10 @@
       <c r="B88" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C88" s="37">
         <v>4415620</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -24363,10 +24347,10 @@
       <c r="B89" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C89" s="50">
+      <c r="C89" s="37">
         <v>4415620</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -24389,10 +24373,10 @@
       <c r="B90" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C90" s="50">
+      <c r="C90" s="37">
         <v>4415620</v>
       </c>
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -24415,10 +24399,10 @@
       <c r="B91" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C91" s="50">
+      <c r="C91" s="37">
         <v>4415620</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -24441,10 +24425,10 @@
       <c r="B92" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C92" s="50">
+      <c r="C92" s="37">
         <v>4415620</v>
       </c>
-      <c r="D92" s="50" t="s">
+      <c r="D92" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -24467,10 +24451,10 @@
       <c r="B93" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C93" s="50">
+      <c r="C93" s="37">
         <v>4415620</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -24493,10 +24477,10 @@
       <c r="B94" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="C94" s="50">
+      <c r="C94" s="37">
         <v>4415620</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -24519,10 +24503,10 @@
       <c r="B95" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95" s="37">
         <v>4404343</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="37" t="s">
         <v>950</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -24545,10 +24529,10 @@
       <c r="B96" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="C96" s="50">
+      <c r="C96" s="37">
         <v>4404343</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="37" t="s">
         <v>950</v>
       </c>
       <c r="E96" s="8" t="s">
@@ -24623,10 +24607,10 @@
       <c r="B99" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C99" s="50">
+      <c r="C99" s="37">
         <v>4281019</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -24649,10 +24633,10 @@
       <c r="B100" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C100" s="50">
+      <c r="C100" s="37">
         <v>4281019</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E100" s="8" t="s">
@@ -24675,10 +24659,10 @@
       <c r="B101" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C101" s="50">
+      <c r="C101" s="37">
         <v>4281019</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E101" s="8" t="s">
@@ -24701,10 +24685,10 @@
       <c r="B102" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C102" s="50">
+      <c r="C102" s="37">
         <v>4281019</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E102" s="8" t="s">
@@ -24727,10 +24711,10 @@
       <c r="B103" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C103" s="50">
+      <c r="C103" s="37">
         <v>4281019</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E103" s="8" t="s">
@@ -24753,10 +24737,10 @@
       <c r="B104" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C104" s="50">
+      <c r="C104" s="37">
         <v>4281019</v>
       </c>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E104" s="8" t="s">
@@ -24779,10 +24763,10 @@
       <c r="B105" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C105" s="50">
+      <c r="C105" s="37">
         <v>4281019</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E105" s="8" t="s">
@@ -24805,10 +24789,10 @@
       <c r="B106" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C106" s="50">
+      <c r="C106" s="37">
         <v>4281019</v>
       </c>
-      <c r="D106" s="50" t="s">
+      <c r="D106" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E106" s="8" t="s">
@@ -24831,10 +24815,10 @@
       <c r="B107" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C107" s="50">
+      <c r="C107" s="37">
         <v>4281019</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E107" s="8" t="s">
@@ -24857,10 +24841,10 @@
       <c r="B108" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C108" s="50">
+      <c r="C108" s="37">
         <v>4281019</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -24883,10 +24867,10 @@
       <c r="B109" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="C109" s="50">
+      <c r="C109" s="37">
         <v>4281019</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -24909,10 +24893,10 @@
       <c r="B110" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C110" s="50">
+      <c r="C110" s="37">
         <v>4210317</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D110" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -24935,10 +24919,10 @@
       <c r="B111" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C111" s="50">
+      <c r="C111" s="37">
         <v>4210317</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -24961,10 +24945,10 @@
       <c r="B112" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C112" s="50">
+      <c r="C112" s="37">
         <v>4210317</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -24987,10 +24971,10 @@
       <c r="B113" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C113" s="50">
+      <c r="C113" s="37">
         <v>4210317</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E113" s="8" t="s">
@@ -25013,10 +24997,10 @@
       <c r="B114" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C114" s="50">
+      <c r="C114" s="37">
         <v>4210317</v>
       </c>
-      <c r="D114" s="50" t="s">
+      <c r="D114" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E114" s="8" t="s">
@@ -25039,10 +25023,10 @@
       <c r="B115" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C115" s="50">
+      <c r="C115" s="37">
         <v>4210317</v>
       </c>
-      <c r="D115" s="50" t="s">
+      <c r="D115" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -25065,10 +25049,10 @@
       <c r="B116" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C116" s="50">
+      <c r="C116" s="37">
         <v>4210317</v>
       </c>
-      <c r="D116" s="50" t="s">
+      <c r="D116" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E116" s="8" t="s">
@@ -25091,10 +25075,10 @@
       <c r="B117" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C117" s="50">
+      <c r="C117" s="37">
         <v>4210317</v>
       </c>
-      <c r="D117" s="50" t="s">
+      <c r="D117" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E117" s="8" t="s">
@@ -25117,10 +25101,10 @@
       <c r="B118" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C118" s="50">
+      <c r="C118" s="37">
         <v>4210317</v>
       </c>
-      <c r="D118" s="50" t="s">
+      <c r="D118" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E118" s="8" t="s">
@@ -25143,10 +25127,10 @@
       <c r="B119" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="C119" s="50">
+      <c r="C119" s="37">
         <v>4210317</v>
       </c>
-      <c r="D119" s="50" t="s">
+      <c r="D119" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -25187,10 +25171,10 @@
       <c r="B121" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C121" s="50">
+      <c r="C121" s="37">
         <v>4130078</v>
       </c>
-      <c r="D121" s="50" t="s">
+      <c r="D121" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -25213,10 +25197,10 @@
       <c r="B122" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C122" s="50">
+      <c r="C122" s="37">
         <v>4130078</v>
       </c>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -25239,10 +25223,10 @@
       <c r="B123" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C123" s="50">
+      <c r="C123" s="37">
         <v>4130078</v>
       </c>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E123" s="8" t="s">
@@ -25265,10 +25249,10 @@
       <c r="B124" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C124" s="50">
+      <c r="C124" s="37">
         <v>4130078</v>
       </c>
-      <c r="D124" s="50" t="s">
+      <c r="D124" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E124" s="8" t="s">
@@ -25291,10 +25275,10 @@
       <c r="B125" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C125" s="50">
+      <c r="C125" s="37">
         <v>4130078</v>
       </c>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -25317,10 +25301,10 @@
       <c r="B126" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C126" s="50">
+      <c r="C126" s="37">
         <v>4130078</v>
       </c>
-      <c r="D126" s="50" t="s">
+      <c r="D126" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -25343,10 +25327,10 @@
       <c r="B127" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C127" s="50">
+      <c r="C127" s="37">
         <v>4130078</v>
       </c>
-      <c r="D127" s="50" t="s">
+      <c r="D127" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E127" s="8" t="s">
@@ -25369,10 +25353,10 @@
       <c r="B128" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C128" s="50">
+      <c r="C128" s="37">
         <v>4130078</v>
       </c>
-      <c r="D128" s="50" t="s">
+      <c r="D128" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E128" s="8" t="s">
@@ -25395,10 +25379,10 @@
       <c r="B129" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="C129" s="50">
+      <c r="C129" s="37">
         <v>4130078</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E129" s="8" t="s">
@@ -25421,10 +25405,10 @@
       <c r="B130" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="C130" s="50">
+      <c r="C130" s="37">
         <v>4074172</v>
       </c>
-      <c r="D130" s="50" t="s">
+      <c r="D130" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E130" s="8" t="s">
@@ -25447,10 +25431,10 @@
       <c r="B131" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="C131" s="50">
+      <c r="C131" s="37">
         <v>4074172</v>
       </c>
-      <c r="D131" s="50" t="s">
+      <c r="D131" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E131" s="8" t="s">
@@ -25473,10 +25457,10 @@
       <c r="B132" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C132" s="50">
+      <c r="C132" s="37">
         <v>4022873</v>
       </c>
-      <c r="D132" s="50" t="s">
+      <c r="D132" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E132" s="8" t="s">
@@ -25499,10 +25483,10 @@
       <c r="B133" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C133" s="50">
+      <c r="C133" s="37">
         <v>4022873</v>
       </c>
-      <c r="D133" s="50" t="s">
+      <c r="D133" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E133" s="8" t="s">
@@ -25525,10 +25509,10 @@
       <c r="B134" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C134" s="50">
+      <c r="C134" s="37">
         <v>4022873</v>
       </c>
-      <c r="D134" s="50" t="s">
+      <c r="D134" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E134" s="8" t="s">
@@ -25551,10 +25535,10 @@
       <c r="B135" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C135" s="50">
+      <c r="C135" s="37">
         <v>4022873</v>
       </c>
-      <c r="D135" s="50" t="s">
+      <c r="D135" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E135" s="8" t="s">
@@ -25577,10 +25561,10 @@
       <c r="B136" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C136" s="50">
+      <c r="C136" s="37">
         <v>4022873</v>
       </c>
-      <c r="D136" s="50" t="s">
+      <c r="D136" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E136" s="8" t="s">
@@ -25603,10 +25587,10 @@
       <c r="B137" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C137" s="50">
+      <c r="C137" s="37">
         <v>4022873</v>
       </c>
-      <c r="D137" s="50" t="s">
+      <c r="D137" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E137" s="8" t="s">
@@ -25629,10 +25613,10 @@
       <c r="B138" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C138" s="50">
+      <c r="C138" s="37">
         <v>4022873</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E138" s="8" t="s">
@@ -25655,10 +25639,10 @@
       <c r="B139" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C139" s="50">
+      <c r="C139" s="37">
         <v>4022873</v>
       </c>
-      <c r="D139" s="50" t="s">
+      <c r="D139" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E139" s="8" t="s">
@@ -25681,10 +25665,10 @@
       <c r="B140" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="C140" s="50">
+      <c r="C140" s="37">
         <v>4022873</v>
       </c>
-      <c r="D140" s="50" t="s">
+      <c r="D140" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E140" s="8" t="s">
@@ -25915,10 +25899,10 @@
       <c r="B149" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="C149" s="50">
+      <c r="C149" s="37">
         <v>3935689</v>
       </c>
-      <c r="D149" s="50" t="s">
+      <c r="D149" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E149" s="8" t="s">
@@ -25993,10 +25977,10 @@
       <c r="B152" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="C152" s="50">
+      <c r="C152" s="37">
         <v>3888970</v>
       </c>
-      <c r="D152" s="50" t="s">
+      <c r="D152" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E152" s="8" t="s">
@@ -26019,10 +26003,10 @@
       <c r="B153" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="C153" s="50">
+      <c r="C153" s="37">
         <v>3888970</v>
       </c>
-      <c r="D153" s="50" t="s">
+      <c r="D153" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E153" s="8" t="s">
@@ -26331,10 +26315,10 @@
       <c r="B165" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="C165" s="50">
+      <c r="C165" s="37">
         <v>3864758</v>
       </c>
-      <c r="D165" s="50" t="s">
+      <c r="D165" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E165" s="8" t="s">
@@ -26357,10 +26341,10 @@
       <c r="B166" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="C166" s="50">
+      <c r="C166" s="37">
         <v>3864758</v>
       </c>
-      <c r="D166" s="50" t="s">
+      <c r="D166" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E166" s="8" t="s">
@@ -26383,10 +26367,10 @@
       <c r="B167" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="C167" s="50">
+      <c r="C167" s="37">
         <v>3864758</v>
       </c>
-      <c r="D167" s="50" t="s">
+      <c r="D167" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E167" s="8" t="s">
@@ -26539,10 +26523,10 @@
       <c r="B173" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="C173" s="50">
+      <c r="C173" s="37">
         <v>3848424</v>
       </c>
-      <c r="D173" s="50" t="s">
+      <c r="D173" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E173" s="8" t="s">
@@ -26565,10 +26549,10 @@
       <c r="B174" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="C174" s="50">
+      <c r="C174" s="37">
         <v>3848424</v>
       </c>
-      <c r="D174" s="50" t="s">
+      <c r="D174" s="37" t="s">
         <v>942</v>
       </c>
       <c r="E174" s="8" t="s">
@@ -26591,10 +26575,10 @@
       <c r="B175" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="C175" s="50">
+      <c r="C175" s="37">
         <v>3893374</v>
       </c>
-      <c r="D175" s="50" t="s">
+      <c r="D175" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E175" s="8" t="s">
@@ -26617,10 +26601,10 @@
       <c r="B176" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="C176" s="50">
+      <c r="C176" s="37">
         <v>3761683</v>
       </c>
-      <c r="D176" s="50" t="s">
+      <c r="D176" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E176" s="8" t="s">
@@ -26643,10 +26627,10 @@
       <c r="B177" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="C177" s="50">
+      <c r="C177" s="37">
         <v>3759430</v>
       </c>
-      <c r="D177" s="50" t="s">
+      <c r="D177" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E177" s="8" t="s">
@@ -26669,10 +26653,10 @@
       <c r="B178" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="C178" s="50">
+      <c r="C178" s="37">
         <v>3634764</v>
       </c>
-      <c r="D178" s="50" t="s">
+      <c r="D178" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E178" s="8" t="s">
@@ -26825,10 +26809,10 @@
       <c r="B184" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="C184" s="50">
+      <c r="C184" s="37">
         <v>3465729</v>
       </c>
-      <c r="D184" s="50" t="s">
+      <c r="D184" s="37" t="s">
         <v>937</v>
       </c>
       <c r="E184" s="8" t="s">
@@ -26890,80 +26874,80 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="R1" s="39"/>
-    </row>
-    <row r="2" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="8">
         <v>5540964</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="39">
         <v>45562</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -26972,38 +26956,38 @@
       <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="39">
         <v>45562</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="21">
         <v>2</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="8" t="s">
         <v>1270</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="8" t="s">
         <v>1272</v>
       </c>
-      <c r="P2" s="39"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="58"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="8" t="s">
         <v>1313</v>
       </c>
       <c r="B3" s="8">
         <v>4990148</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="39">
         <v>45279</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -27024,14 +27008,14 @@
       <c r="I3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="55">
+      <c r="J3" s="39"/>
+      <c r="K3" s="41">
         <v>12.8131416837782</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="41" t="s">
         <v>1276</v>
       </c>
       <c r="N3" s="8" t="s">
@@ -27049,13 +27033,13 @@
       <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="8" t="s">
         <v>1314</v>
       </c>
       <c r="B4" s="8">
         <v>5088775</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="39">
         <v>45224</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -27076,14 +27060,14 @@
       <c r="I4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="55">
+      <c r="J4" s="39"/>
+      <c r="K4" s="41">
         <v>1.9736063635406</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="8" t="s">
         <v>1271</v>
       </c>
@@ -27099,13 +27083,13 @@
       <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="8" t="s">
         <v>1315</v>
       </c>
       <c r="B5" s="8">
         <v>4631663</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="39">
         <v>44739</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -27126,16 +27110,16 @@
       <c r="I5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="39">
         <v>44739</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="41">
         <v>21.510002151000201</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="41" t="s">
         <v>1276</v>
       </c>
       <c r="N5" s="8" t="s">
@@ -27151,13 +27135,13 @@
       <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="8" t="s">
         <v>1316</v>
       </c>
       <c r="B6" s="8">
         <v>4522267</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="39">
         <v>44587</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -27166,7 +27150,7 @@
       <c r="E6" s="8" t="s">
         <v>1280</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="42" t="s">
         <v>306</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -27178,14 +27162,14 @@
       <c r="I6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="39">
         <v>44587</v>
       </c>
-      <c r="K6" s="55"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="41" t="s">
         <v>1281</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -27197,19 +27181,19 @@
       <c r="P6" s="8" t="s">
         <v>1332</v>
       </c>
-      <c r="Q6" s="56" t="s">
+      <c r="Q6" s="42" t="s">
         <v>52</v>
       </c>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="8" t="s">
         <v>1317</v>
       </c>
       <c r="B7" s="8">
         <v>4484253</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="39">
         <v>44571</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -27230,16 +27214,16 @@
       <c r="I7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="39">
         <v>44522</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="41">
         <v>21.878037453183499</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="41" t="s">
         <v>1276</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -27251,19 +27235,19 @@
       <c r="P7" s="8" t="s">
         <v>1333</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" s="42" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="8" t="s">
         <v>1318</v>
       </c>
       <c r="B8" s="8">
         <v>4502236</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="39">
         <v>44557</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -27284,14 +27268,14 @@
       <c r="I8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55">
+      <c r="J8" s="39"/>
+      <c r="K8" s="41">
         <v>11.9588615163836</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="8" t="s">
         <v>1271</v>
       </c>
@@ -27307,13 +27291,13 @@
       <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="8" t="s">
         <v>1319</v>
       </c>
       <c r="B9" s="8">
         <v>4490487</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="39">
         <v>44539</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -27334,14 +27318,14 @@
       <c r="I9" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55">
+      <c r="J9" s="39"/>
+      <c r="K9" s="41">
         <v>1016.2831138914599</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="M9" s="55"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="8" t="s">
         <v>944</v>
       </c>
@@ -27357,13 +27341,13 @@
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="8" t="s">
         <v>1320</v>
       </c>
       <c r="B10" s="8">
         <v>4413593</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="39">
         <v>44448</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -27384,16 +27368,16 @@
       <c r="I10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="39">
         <v>44448</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="41">
         <v>66.119150988905005</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="41" t="s">
         <v>1290</v>
       </c>
       <c r="N10" s="8" t="s">
@@ -27411,13 +27395,13 @@
       <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="8" t="s">
         <v>1321</v>
       </c>
       <c r="B11" s="8">
         <v>3758016</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="39">
         <v>43438</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -27438,16 +27422,16 @@
       <c r="I11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="39">
         <v>43438</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="41">
         <v>96.32</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="41" t="s">
         <v>1293</v>
       </c>
       <c r="N11" s="8" t="s">
@@ -27465,13 +27449,13 @@
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="8" t="s">
         <v>1322</v>
       </c>
       <c r="B12" s="8">
         <v>3577109</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="39">
         <v>43273</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -27492,16 +27476,16 @@
       <c r="I12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="39">
         <v>43250</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="41">
         <v>738.10663296999996</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M12" s="55" t="s">
+      <c r="M12" s="41" t="s">
         <v>1294</v>
       </c>
       <c r="N12" s="8" t="s">
@@ -27517,13 +27501,13 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="8" t="s">
         <v>1323</v>
       </c>
       <c r="B13" s="8">
         <v>3565273</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="39">
         <v>43061</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -27544,16 +27528,16 @@
       <c r="I13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="39">
         <v>43061</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="41">
         <v>5.2270437956204399</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="41" t="s">
         <v>1301</v>
       </c>
       <c r="N13" s="8" t="s">
@@ -27569,13 +27553,13 @@
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="8" t="s">
         <v>1324</v>
       </c>
       <c r="B14" s="8">
         <v>3540880</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="39">
         <v>43049</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -27596,14 +27580,14 @@
       <c r="I14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="55">
+      <c r="J14" s="39"/>
+      <c r="K14" s="41">
         <v>2.3673058149669299</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M14" s="55"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="8" t="s">
         <v>1271</v>
       </c>
@@ -27617,13 +27601,13 @@
       <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="8" t="s">
         <v>1325</v>
       </c>
       <c r="B15" s="8">
         <v>3519988</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="39">
         <v>42996</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -27644,16 +27628,16 @@
       <c r="I15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="39">
         <v>42970</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="41">
         <v>1.3395237885656399</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="41" t="s">
         <v>1276</v>
       </c>
       <c r="N15" s="8" t="s">
@@ -27663,19 +27647,19 @@
         <v>1283</v>
       </c>
       <c r="P15" s="8"/>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" s="42" t="s">
         <v>52</v>
       </c>
       <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="8" t="s">
         <v>1326</v>
       </c>
       <c r="B16" s="8">
         <v>3193945</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="39">
         <v>42880</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -27696,14 +27680,14 @@
       <c r="I16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="55">
+      <c r="J16" s="39"/>
+      <c r="K16" s="41">
         <v>3.9103280866829402</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="M16" s="55"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="8" t="s">
         <v>1271</v>
       </c>
@@ -27717,13 +27701,13 @@
       <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="8" t="s">
         <v>1327</v>
       </c>
       <c r="B17" s="8">
         <v>3282893</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="39">
         <v>42515</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -27744,10 +27728,10 @@
       <c r="I17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="39">
         <v>42515</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="41">
         <v>250.95054533789599</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -27769,13 +27753,13 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="8" t="s">
         <v>1328</v>
       </c>
       <c r="B18" s="8">
         <v>3265927</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="39">
         <v>42483</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -27796,10 +27780,10 @@
       <c r="I18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="39">
         <v>42483</v>
       </c>
-      <c r="K18" s="55">
+      <c r="K18" s="41">
         <v>8.9823048594269306</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -27908,49 +27892,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="47"/>
+    <col min="1" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>1337</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="3" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1338</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="8">
         <v>5540964</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="8" t="s">
         <v>1273</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -27964,10 +27948,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="8" t="s">
         <v>1339</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="8" t="s">
         <v>1313</v>
       </c>
       <c r="C3" s="8">
@@ -27984,10 +27968,10 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="8" t="s">
         <v>1314</v>
       </c>
       <c r="C4" s="8">
@@ -28010,10 +27994,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="8" t="s">
         <v>1341</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="8" t="s">
         <v>1315</v>
       </c>
       <c r="C5" s="8">
@@ -28030,10 +28014,10 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="8" t="s">
         <v>1342</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="8" t="s">
         <v>1316</v>
       </c>
       <c r="C6" s="8">
@@ -28050,10 +28034,10 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="8" t="s">
         <v>1343</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="8" t="s">
         <v>1317</v>
       </c>
       <c r="C7" s="8">
@@ -28070,10 +28054,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="8" t="s">
         <v>1344</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="8" t="s">
         <v>1318</v>
       </c>
       <c r="C8" s="8">
@@ -28096,10 +28080,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="8" t="s">
         <v>1345</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="8" t="s">
         <v>1319</v>
       </c>
       <c r="C9" s="8">
@@ -28116,10 +28100,10 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="8" t="s">
         <v>1346</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="8" t="s">
         <v>1320</v>
       </c>
       <c r="C10" s="8">
@@ -28142,10 +28126,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="8" t="s">
         <v>1347</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="8" t="s">
         <v>1321</v>
       </c>
       <c r="C11" s="8">
@@ -28162,10 +28146,10 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="8" t="s">
         <v>1348</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="8" t="s">
         <v>1322</v>
       </c>
       <c r="C12" s="8">
@@ -28188,10 +28172,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="8" t="s">
         <v>1349</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="8" t="s">
         <v>1322</v>
       </c>
       <c r="C13" s="8">
@@ -28214,10 +28198,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="8" t="s">
         <v>1350</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="8" t="s">
         <v>1322</v>
       </c>
       <c r="C14" s="8">
@@ -28240,10 +28224,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="8" t="s">
         <v>1351</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="8" t="s">
         <v>1323</v>
       </c>
       <c r="C15" s="8">
@@ -28266,10 +28250,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="8" t="s">
         <v>1352</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="8" t="s">
         <v>1324</v>
       </c>
       <c r="C16" s="8">
@@ -28292,10 +28276,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="8" t="s">
         <v>1353</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="8" t="s">
         <v>1325</v>
       </c>
       <c r="C17" s="8">
@@ -28312,10 +28296,10 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="8" t="s">
         <v>1354</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="8" t="s">
         <v>1326</v>
       </c>
       <c r="C18" s="8">
@@ -28338,10 +28322,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="8" t="s">
         <v>1355</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="8" t="s">
         <v>1327</v>
       </c>
       <c r="C19" s="8">
@@ -28364,10 +28348,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="8" t="s">
         <v>1356</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="8" t="s">
         <v>1328</v>
       </c>
       <c r="C20" s="8">

--- a/wf_data.xlsx
+++ b/wf_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmgs/Documents/Github/sea-petchem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB043C8-4A88-764E-8432-BC410331B84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C30E1-796F-C54E-8D79-B95F31B2937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="2060" windowWidth="26620" windowHeight="16260" activeTab="1" xr2:uid="{3B4969AE-2234-774F-A28F-2683FA1E44DB}"/>
+    <workbookView xWindow="1820" yWindow="2060" windowWidth="26620" windowHeight="16260" activeTab="3" xr2:uid="{3B4969AE-2234-774F-A28F-2683FA1E44DB}"/>
   </bookViews>
   <sheets>
     <sheet name="docs" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="eq_list" sheetId="8" r:id="rId8"/>
     <sheet name="eq_banks" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1374">
   <si>
     <t>Announced</t>
   </si>
@@ -3412,9 +3412,6 @@
     <t>book_comanagers_parent</t>
   </si>
   <si>
-    <t>book_comanagers_parent_company</t>
-  </si>
-  <si>
     <t>bonds_banks_id</t>
   </si>
   <si>
@@ -4268,6 +4265,36 @@
   </si>
   <si>
     <t>Upstream / Midstream / Downstream</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>State-owned [PetroChina]</t>
+  </si>
+  <si>
+    <t>State-owned [Petronas]</t>
+  </si>
+  <si>
+    <t>State-owned [DOE]</t>
+  </si>
+  <si>
+    <t>State-owned [Saudi Arabian Oil Co]</t>
+  </si>
+  <si>
+    <t>State-owned [EDB]</t>
+  </si>
+  <si>
+    <t>State-owned [EMA]</t>
+  </si>
+  <si>
+    <t>State-owned [MPA]</t>
+  </si>
+  <si>
+    <t>State-owned [Korea National Oil Corp]</t>
+  </si>
+  <si>
+    <t>State-owned [CPC Corp]</t>
   </si>
 </sst>
 </file>
@@ -4430,7 +4457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4488,6 +4515,9 @@
     <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4888,15 +4918,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B10" t="s">
         <v>928</v>
@@ -4904,15 +4934,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B12" t="s">
         <v>928</v>
@@ -4927,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40768793-6447-D64E-91B8-A1D1ABB0D105}">
   <dimension ref="A1:AB1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V79" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13240,6 +13270,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -13248,8 +13279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD959BD-EA74-C149-985B-29025CE8DAF4}">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView topLeftCell="B137" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13819,7 +13850,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>362</v>
+        <v>1367</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>21</v>
@@ -13983,7 +14014,7 @@
         <v>33.333300000000001</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>362</v>
+        <v>1369</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>27</v>
@@ -14967,7 +14998,7 @@
         <v>33.333300000000001</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>362</v>
+        <v>1366</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>2</v>
@@ -15090,7 +15121,7 @@
         <v>33.333300000000001</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>362</v>
+        <v>529</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>121</v>
@@ -15582,7 +15613,7 @@
         <v>25</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>362</v>
+        <v>1365</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>388</v>
@@ -16648,7 +16679,7 @@
         <v>14.2857</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>362</v>
+        <v>1366</v>
       </c>
       <c r="K83" s="16" t="s">
         <v>2</v>
@@ -16730,7 +16761,7 @@
         <v>50</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>362</v>
+        <v>1371</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>27</v>
@@ -16771,7 +16802,7 @@
         <v>50</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>362</v>
+        <v>1370</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>27</v>
@@ -17017,7 +17048,7 @@
         <v>33.332999999999998</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>362</v>
+        <v>1372</v>
       </c>
       <c r="K92" s="16" t="s">
         <v>350</v>
@@ -17550,7 +17581,7 @@
         <v>20</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>362</v>
+        <v>1372</v>
       </c>
       <c r="K105" s="16" t="s">
         <v>350</v>
@@ -17868,11 +17899,19 @@
       <c r="F113" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="16"/>
+      <c r="G113" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K113" s="43" t="s">
+        <v>1364</v>
+      </c>
       <c r="L113" s="4" t="s">
         <v>491</v>
       </c>
@@ -17940,11 +17979,19 @@
       <c r="F115" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
+      <c r="G115" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K115" s="43" t="s">
+        <v>1364</v>
+      </c>
       <c r="L115" s="4" t="s">
         <v>494</v>
       </c>
@@ -17981,7 +18028,7 @@
         <v>50</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>362</v>
+        <v>1373</v>
       </c>
       <c r="K116" s="16" t="s">
         <v>496</v>
@@ -18061,7 +18108,7 @@
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="18" t="s">
-        <v>362</v>
+        <v>1368</v>
       </c>
       <c r="K118" s="18" t="s">
         <v>373</v>
@@ -18983,8 +19030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C420AB-B889-1545-9030-7F01D544120C}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19064,8 +19111,12 @@
       <c r="F2" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>824</v>
+      </c>
       <c r="I2" s="29">
         <v>44776</v>
       </c>
@@ -19107,8 +19158,12 @@
       <c r="F3" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>824</v>
+      </c>
       <c r="I3" s="29">
         <v>44040</v>
       </c>
@@ -19181,7 +19236,7 @@
         <v>832</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -19254,8 +19309,12 @@
       <c r="F6" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>824</v>
+      </c>
       <c r="I6" s="32">
         <v>43313</v>
       </c>
@@ -19479,8 +19538,12 @@
       <c r="F11" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>824</v>
+      </c>
       <c r="I11" s="33">
         <v>43313</v>
       </c>
@@ -19520,8 +19583,12 @@
       <c r="F12" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>824</v>
+      </c>
       <c r="I12" s="33">
         <v>43313</v>
       </c>
@@ -19604,8 +19671,12 @@
       <c r="F14" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>824</v>
+      </c>
       <c r="I14" s="33">
         <v>43313</v>
       </c>
@@ -20294,8 +20365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1041F363-6D89-7646-ADAD-C488EB250501}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K38" sqref="K22:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22038,8 +22109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D9CF84-92B0-E74B-9E52-5558A17E4247}">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22051,7 +22122,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>964</v>
@@ -22072,12 +22143,12 @@
         <v>1078</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1079</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>965</v>
@@ -22103,7 +22174,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>965</v>
@@ -22129,7 +22200,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>965</v>
@@ -22147,7 +22218,7 @@
         <v>63</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>350</v>
@@ -22155,7 +22226,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>965</v>
@@ -22181,7 +22252,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>966</v>
@@ -22207,7 +22278,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>966</v>
@@ -22233,7 +22304,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>967</v>
@@ -22259,7 +22330,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>967</v>
@@ -22285,7 +22356,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>967</v>
@@ -22311,7 +22382,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>967</v>
@@ -22337,7 +22408,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>967</v>
@@ -22363,7 +22434,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>967</v>
@@ -22389,7 +22460,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>967</v>
@@ -22415,7 +22486,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>967</v>
@@ -22441,7 +22512,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>967</v>
@@ -22467,7 +22538,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>967</v>
@@ -22493,7 +22564,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>967</v>
@@ -22519,7 +22590,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>967</v>
@@ -22545,7 +22616,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>967</v>
@@ -22571,7 +22642,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>967</v>
@@ -22597,7 +22668,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>967</v>
@@ -22623,7 +22694,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>967</v>
@@ -22649,7 +22720,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>967</v>
@@ -22675,7 +22746,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>968</v>
@@ -22701,7 +22772,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>968</v>
@@ -22727,7 +22798,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>968</v>
@@ -22753,7 +22824,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>969</v>
@@ -22779,7 +22850,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>970</v>
@@ -22805,7 +22876,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>970</v>
@@ -22831,7 +22902,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>970</v>
@@ -22857,7 +22928,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>970</v>
@@ -22883,7 +22954,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>970</v>
@@ -22909,7 +22980,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>970</v>
@@ -22935,7 +23006,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>970</v>
@@ -22961,7 +23032,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>970</v>
@@ -22987,7 +23058,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>970</v>
@@ -23013,7 +23084,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>970</v>
@@ -23039,7 +23110,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>970</v>
@@ -23065,7 +23136,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>970</v>
@@ -23091,7 +23162,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>970</v>
@@ -23117,7 +23188,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>970</v>
@@ -23143,7 +23214,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>970</v>
@@ -23169,7 +23240,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>970</v>
@@ -23195,7 +23266,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>970</v>
@@ -23221,7 +23292,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>970</v>
@@ -23247,7 +23318,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>971</v>
@@ -23273,7 +23344,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>971</v>
@@ -23299,7 +23370,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>971</v>
@@ -23325,7 +23396,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>971</v>
@@ -23351,7 +23422,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>972</v>
@@ -23377,7 +23448,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>972</v>
@@ -23403,7 +23474,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>972</v>
@@ -23429,7 +23500,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>972</v>
@@ -23455,7 +23526,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>972</v>
@@ -23481,7 +23552,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>973</v>
@@ -23507,7 +23578,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>973</v>
@@ -23533,7 +23604,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>973</v>
@@ -23559,7 +23630,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>973</v>
@@ -23585,7 +23656,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>973</v>
@@ -23611,7 +23682,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>974</v>
@@ -23637,7 +23708,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>974</v>
@@ -23663,7 +23734,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>974</v>
@@ -23689,7 +23760,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>974</v>
@@ -23715,7 +23786,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>974</v>
@@ -23741,7 +23812,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>974</v>
@@ -23767,7 +23838,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>974</v>
@@ -23793,7 +23864,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>974</v>
@@ -23819,7 +23890,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>974</v>
@@ -23845,7 +23916,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>974</v>
@@ -23871,7 +23942,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>974</v>
@@ -23897,7 +23968,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>974</v>
@@ -23923,7 +23994,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>974</v>
@@ -23949,7 +24020,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>975</v>
@@ -23975,7 +24046,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>975</v>
@@ -24001,7 +24072,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>976</v>
@@ -24027,7 +24098,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>976</v>
@@ -24053,7 +24124,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>976</v>
@@ -24079,7 +24150,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>976</v>
@@ -24105,7 +24176,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>976</v>
@@ -24131,7 +24202,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>976</v>
@@ -24157,7 +24228,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>976</v>
@@ -24183,7 +24254,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>976</v>
@@ -24209,7 +24280,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>977</v>
@@ -24235,7 +24306,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>977</v>
@@ -24261,7 +24332,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>977</v>
@@ -24287,7 +24358,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>977</v>
@@ -24313,7 +24384,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>977</v>
@@ -24339,7 +24410,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>977</v>
@@ -24365,7 +24436,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>977</v>
@@ -24391,7 +24462,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>977</v>
@@ -24417,7 +24488,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>977</v>
@@ -24443,7 +24514,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>977</v>
@@ -24469,7 +24540,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>977</v>
@@ -24495,7 +24566,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>978</v>
@@ -24521,7 +24592,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>978</v>
@@ -24547,7 +24618,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>979</v>
@@ -24573,7 +24644,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>979</v>
@@ -24599,7 +24670,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>980</v>
@@ -24625,7 +24696,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>980</v>
@@ -24651,7 +24722,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>980</v>
@@ -24677,7 +24748,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>980</v>
@@ -24703,7 +24774,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>980</v>
@@ -24729,7 +24800,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>980</v>
@@ -24755,7 +24826,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>980</v>
@@ -24781,7 +24852,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>980</v>
@@ -24807,7 +24878,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>980</v>
@@ -24833,7 +24904,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>980</v>
@@ -24859,7 +24930,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>980</v>
@@ -24885,7 +24956,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>981</v>
@@ -24911,7 +24982,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>981</v>
@@ -24937,7 +25008,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>981</v>
@@ -24963,7 +25034,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>981</v>
@@ -24989,7 +25060,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>981</v>
@@ -25015,7 +25086,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>981</v>
@@ -25041,7 +25112,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>981</v>
@@ -25067,7 +25138,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>981</v>
@@ -25093,7 +25164,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>981</v>
@@ -25119,7 +25190,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>981</v>
@@ -25145,7 +25216,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>982</v>
@@ -25163,7 +25234,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>983</v>
@@ -25189,7 +25260,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>983</v>
@@ -25215,7 +25286,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>983</v>
@@ -25241,7 +25312,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>983</v>
@@ -25267,7 +25338,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>983</v>
@@ -25293,7 +25364,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>983</v>
@@ -25319,7 +25390,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>983</v>
@@ -25345,7 +25416,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>983</v>
@@ -25371,7 +25442,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>983</v>
@@ -25397,7 +25468,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>984</v>
@@ -25423,7 +25494,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>984</v>
@@ -25449,7 +25520,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>985</v>
@@ -25475,7 +25546,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>985</v>
@@ -25501,7 +25572,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>985</v>
@@ -25527,7 +25598,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>985</v>
@@ -25553,7 +25624,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>985</v>
@@ -25579,7 +25650,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>985</v>
@@ -25605,7 +25676,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>985</v>
@@ -25631,7 +25702,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>985</v>
@@ -25657,7 +25728,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>985</v>
@@ -25683,7 +25754,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>986</v>
@@ -25709,7 +25780,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>986</v>
@@ -25735,7 +25806,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>986</v>
@@ -25761,7 +25832,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>986</v>
@@ -25787,7 +25858,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>986</v>
@@ -25813,7 +25884,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>986</v>
@@ -25839,7 +25910,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>987</v>
@@ -25865,7 +25936,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>987</v>
@@ -25891,7 +25962,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>988</v>
@@ -25917,7 +25988,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>989</v>
@@ -25943,7 +26014,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>989</v>
@@ -25969,7 +26040,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>990</v>
@@ -25995,7 +26066,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>990</v>
@@ -26021,7 +26092,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>991</v>
@@ -26047,7 +26118,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>991</v>
@@ -26073,7 +26144,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>991</v>
@@ -26099,7 +26170,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>991</v>
@@ -26125,7 +26196,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>991</v>
@@ -26151,7 +26222,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>991</v>
@@ -26177,7 +26248,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>992</v>
@@ -26203,7 +26274,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>992</v>
@@ -26229,7 +26300,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>992</v>
@@ -26255,7 +26326,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>992</v>
@@ -26281,7 +26352,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>992</v>
@@ -26307,7 +26378,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>993</v>
@@ -26333,7 +26404,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>993</v>
@@ -26359,7 +26430,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>993</v>
@@ -26385,7 +26456,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>994</v>
@@ -26411,7 +26482,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>994</v>
@@ -26437,7 +26508,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>994</v>
@@ -26463,7 +26534,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>994</v>
@@ -26489,7 +26560,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>994</v>
@@ -26515,7 +26586,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>995</v>
@@ -26541,7 +26612,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>995</v>
@@ -26567,7 +26638,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>996</v>
@@ -26593,7 +26664,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>997</v>
@@ -26619,7 +26690,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>998</v>
@@ -26645,7 +26716,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>999</v>
@@ -26671,7 +26742,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>1000</v>
@@ -26697,7 +26768,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>1000</v>
@@ -26723,7 +26794,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>1000</v>
@@ -26749,7 +26820,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>1000</v>
@@ -26775,7 +26846,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>1000</v>
@@ -26801,7 +26872,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>1001</v>
@@ -26862,7 +26933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEF8AF7-AC27-494F-8E1D-CC6A399CB6DA}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -26873,10 +26944,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>957</v>
@@ -26900,7 +26971,7 @@
         <v>869</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>960</v>
@@ -26915,7 +26986,7 @@
         <v>963</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>876</v>
@@ -26927,7 +26998,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B2" s="8">
         <v>5540964</v>
@@ -26936,10 +27007,10 @@
         <v>45562</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>1265</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1266</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>565</v>
@@ -26948,7 +27019,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>2</v>
@@ -26960,16 +27031,16 @@
         <v>2</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>1270</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="8" t="s">
@@ -26979,7 +27050,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B3" s="8">
         <v>4990148</v>
@@ -26988,10 +27059,10 @@
         <v>45279</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>931</v>
@@ -27000,7 +27071,7 @@
         <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>101</v>
@@ -27010,19 +27081,19 @@
         <v>12.8131416837782</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>1273</v>
       </c>
-      <c r="M3" s="41" t="s">
-        <v>1274</v>
-      </c>
       <c r="N3" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>1270</v>
-      </c>
       <c r="P3" s="8" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>52</v>
@@ -27031,7 +27102,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B4" s="8">
         <v>5088775</v>
@@ -27040,10 +27111,10 @@
         <v>45224</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>1265</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1266</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>931</v>
@@ -27052,7 +27123,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>2</v>
@@ -27062,17 +27133,17 @@
         <v>1.9736063635406</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M4" s="41"/>
       <c r="N4" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>1270</v>
-      </c>
       <c r="P4" s="8" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>131</v>
@@ -27081,7 +27152,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B5" s="8">
         <v>4631663</v>
@@ -27090,19 +27161,19 @@
         <v>44739</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>101</v>
@@ -27114,16 +27185,16 @@
         <v>21.510002151000201</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N5" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>1270</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8" t="s">
@@ -27133,7 +27204,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B6" s="8">
         <v>4522267</v>
@@ -27142,10 +27213,10 @@
         <v>44587</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>1277</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>1278</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>306</v>
@@ -27154,7 +27225,7 @@
         <v>121</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>121</v>
@@ -27164,19 +27235,19 @@
       </c>
       <c r="K6" s="41"/>
       <c r="L6" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>1270</v>
-      </c>
       <c r="P6" s="8" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q6" s="42" t="s">
         <v>52</v>
@@ -27185,7 +27256,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B7" s="8">
         <v>4484253</v>
@@ -27194,10 +27265,10 @@
         <v>44571</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>931</v>
@@ -27206,7 +27277,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>101</v>
@@ -27218,19 +27289,19 @@
         <v>21.878037453183499</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>938</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Q7" s="42" t="s">
         <v>52</v>
@@ -27239,7 +27310,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B8" s="8">
         <v>4502236</v>
@@ -27248,10 +27319,10 @@
         <v>44557</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>565</v>
@@ -27260,7 +27331,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>2</v>
@@ -27270,17 +27341,17 @@
         <v>11.9588615163836</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>1270</v>
-      </c>
       <c r="P8" s="8" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>44</v>
@@ -27289,7 +27360,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B9" s="8">
         <v>4490487</v>
@@ -27301,7 +27372,7 @@
         <v>940</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>0</v>
@@ -27320,14 +27391,14 @@
         <v>1016.2831138914599</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="8" t="s">
         <v>942</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>943</v>
@@ -27339,7 +27410,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B10" s="8">
         <v>4413593</v>
@@ -27348,10 +27419,10 @@
         <v>44448</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>931</v>
@@ -27372,19 +27443,19 @@
         <v>66.119150988905005</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M10" s="41" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>942</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>52</v>
@@ -27393,7 +27464,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B11" s="8">
         <v>3758016</v>
@@ -27405,7 +27476,7 @@
         <v>929</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>931</v>
@@ -27426,16 +27497,16 @@
         <v>96.32</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>933</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>934</v>
@@ -27447,7 +27518,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B12" s="8">
         <v>3577109</v>
@@ -27459,7 +27530,7 @@
         <v>929</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>931</v>
@@ -27480,16 +27551,16 @@
         <v>738.10663296999996</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>933</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8" t="s">
@@ -27499,7 +27570,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B13" s="8">
         <v>3565273</v>
@@ -27508,10 +27579,10 @@
         <v>43061</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>565</v>
@@ -27520,7 +27591,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>2</v>
@@ -27532,16 +27603,16 @@
         <v>5.2270437956204399</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M13" s="41" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N13" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>1270</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8" t="s">
@@ -27551,7 +27622,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B14" s="8">
         <v>3540880</v>
@@ -27560,10 +27631,10 @@
         <v>43049</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>931</v>
@@ -27572,7 +27643,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>2</v>
@@ -27582,14 +27653,14 @@
         <v>2.3673058149669299</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>1270</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8" t="s">
@@ -27599,7 +27670,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B15" s="8">
         <v>3519988</v>
@@ -27608,10 +27679,10 @@
         <v>42996</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>931</v>
@@ -27620,7 +27691,7 @@
         <v>101</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>101</v>
@@ -27632,16 +27703,16 @@
         <v>1.3395237885656399</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>938</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="42" t="s">
@@ -27651,7 +27722,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B16" s="8">
         <v>3193945</v>
@@ -27660,10 +27731,10 @@
         <v>42880</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>931</v>
@@ -27672,7 +27743,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>2</v>
@@ -27682,14 +27753,14 @@
         <v>3.9103280866829402</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>1270</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8" t="s">
@@ -27699,7 +27770,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B17" s="8">
         <v>3282893</v>
@@ -27708,10 +27779,10 @@
         <v>42515</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>931</v>
@@ -27720,7 +27791,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>21</v>
@@ -27732,16 +27803,16 @@
         <v>250.95054533789599</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M17" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>1302</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>1303</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8" t="s">
@@ -27751,7 +27822,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B18" s="8">
         <v>3265927</v>
@@ -27760,19 +27831,19 @@
         <v>42483</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>101</v>
@@ -27784,16 +27855,16 @@
         <v>8.9823048594269306</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>938</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8" t="s">
@@ -27884,7 +27955,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27894,13 +27965,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>864</v>
@@ -27915,24 +27986,24 @@
         <v>1078</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C2" s="8">
         <v>5540964</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>2</v>
@@ -27946,19 +28017,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C3" s="8">
         <v>4990148</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -27966,19 +28037,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C4" s="8">
         <v>5088775</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>2</v>
@@ -27992,19 +28063,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C5" s="8">
         <v>4631663</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -28012,19 +28083,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C6" s="8">
         <v>4522267</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -28032,19 +28103,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C7" s="8">
         <v>4484253</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -28052,25 +28123,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C8" s="8">
         <v>4502236</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>1282</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1283</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>2</v>
@@ -28078,10 +28149,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C9" s="8">
         <v>4490487</v>
@@ -28090,7 +28161,7 @@
         <v>940</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -28098,25 +28169,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C10" s="8">
         <v>4413593</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>2</v>
@@ -28124,10 +28195,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C11" s="8">
         <v>3758016</v>
@@ -28136,7 +28207,7 @@
         <v>929</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -28144,10 +28215,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C12" s="8">
         <v>3577109</v>
@@ -28156,13 +28227,13 @@
         <v>929</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>383</v>
@@ -28170,10 +28241,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C13" s="8">
         <v>3577109</v>
@@ -28182,13 +28253,13 @@
         <v>929</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>356</v>
@@ -28196,10 +28267,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C14" s="8">
         <v>3577109</v>
@@ -28208,13 +28279,13 @@
         <v>929</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>341</v>
@@ -28222,25 +28293,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C15" s="8">
         <v>3565273</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>1282</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>1283</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>2</v>
@@ -28248,25 +28319,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C16" s="8">
         <v>3540880</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>1282</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>1283</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>2</v>
@@ -28274,19 +28345,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C17" s="8">
         <v>3519988</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -28294,25 +28365,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C18" s="8">
         <v>3193945</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>1282</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>1283</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>2</v>
@@ -28320,45 +28391,45 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C19" s="8">
         <v>3282893</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>1355</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C20" s="8">
         <v>3265927</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
